--- a/RobotFramework/Projects/JTI/FromAron/Smoke TST document_2018-01-30.xlsx
+++ b/RobotFramework/Projects/JTI/FromAron/Smoke TST document_2018-01-30.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aron.fernbach\OneDrive - Accenture\JTI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robert.pecz\Documents\RobotFramework\robotframework_demo\RobotFramework\Projects\JTI\FromAron\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="3930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="3936" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -132,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="458">
   <si>
     <t>Writer &amp; date:</t>
   </si>
@@ -1478,9 +1478,6 @@
     <t>colleague was removed, but page did not scroll to "Colleagues" panel after reload</t>
   </si>
   <si>
-    <t>white screen after page finished loading</t>
-  </si>
-  <si>
     <t>Open link https://insidetest.jti.com/Markets/Global/Pages/Topics_Simple.aspx to load "Topics_simple_page"</t>
   </si>
   <si>
@@ -1493,10 +1490,22 @@
     <t>awaits confirmation</t>
   </si>
   <si>
-    <t>Documents webpart gives error: Sorry, something went wrong.</t>
-  </si>
-  <si>
     <t>opened in same tab, should be opened in new tab</t>
+  </si>
+  <si>
+    <t>No Links tab appear on the community page</t>
+  </si>
+  <si>
+    <t>No Tasks tab appear on the community page</t>
+  </si>
+  <si>
+    <t>No Calendars tab appear on the community page</t>
+  </si>
+  <si>
+    <t>Not the right page appearing, it’s a Sharepoint site</t>
+  </si>
+  <si>
+    <t>Get an Alert in test automation (Selenium) with the text: Unexpected response from server. The status code of response is '0'. Because of this the automated test are not working, it's not appearing in manual tests.</t>
   </si>
 </sst>
 </file>
@@ -2308,23 +2317,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3029,25 +3038,25 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="9" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="9" width="9.44140625" customWidth="1"/>
     <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="12" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" customWidth="1"/>
+    <col min="11" max="12" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="46" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="2:12" s="49" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:12" s="49" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="47" t="s">
         <v>13</v>
       </c>
@@ -3082,7 +3091,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:12" s="50" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" s="50" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="72" t="s">
         <v>189</v>
       </c>
@@ -3094,11 +3103,11 @@
       </c>
       <c r="E4" s="75">
         <f>COUNTIF(Standard!$E:$E,"Passed")</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F4" s="75">
         <f>COUNTIF(Standard!$E:$E,"Failed")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" s="75">
         <f>COUNTIF(Standard!$E:$E,"Blocked")</f>
@@ -3122,27 +3131,27 @@
       </c>
       <c r="L4" s="77">
         <f>E4/I4</f>
-        <v>0.93488372093023253</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.92558139534883721</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="51" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="115" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="52" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="69"/>
       <c r="G8" s="69"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="113" t="s">
         <v>21</v>
       </c>
@@ -3154,7 +3163,7 @@
       <c r="F9" s="70"/>
       <c r="G9" s="70"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="113" t="s">
         <v>22</v>
       </c>
@@ -3166,7 +3175,7 @@
       <c r="F10" s="70"/>
       <c r="G10" s="70"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="113" t="s">
         <v>23</v>
       </c>
@@ -3178,7 +3187,7 @@
       <c r="F11" s="70"/>
       <c r="G11" s="70"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="113" t="s">
         <v>24</v>
       </c>
@@ -3190,7 +3199,7 @@
       <c r="F12" s="71"/>
       <c r="G12" s="71"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="113" t="s">
         <v>25</v>
       </c>
@@ -3202,7 +3211,7 @@
       <c r="F13" s="71"/>
       <c r="G13" s="71"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="113" t="s">
         <v>26</v>
       </c>
@@ -3215,7 +3224,7 @@
       <c r="F14" s="71"/>
       <c r="G14" s="71"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="113" t="s">
         <v>27</v>
       </c>
@@ -3228,7 +3237,7 @@
       <c r="G15" s="70"/>
       <c r="H15" s="45"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="113" t="s">
         <v>28</v>
       </c>
@@ -3240,7 +3249,7 @@
       <c r="F16" s="70"/>
       <c r="G16" s="70"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="113" t="s">
         <v>29</v>
       </c>
@@ -3252,34 +3261,34 @@
       <c r="F17" s="70"/>
       <c r="G17" s="70"/>
     </row>
-    <row r="18" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="111" t="s">
+    <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="112"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="55" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="70"/>
       <c r="G18" s="70"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="I28" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3290,22 +3299,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F281" sqref="F281"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="29.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="29.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="29.7109375" style="3"/>
+    <col min="1" max="1" width="16.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="64.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="29.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3319,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="D2" s="2"/>
@@ -3329,7 +3338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="103" t="s">
         <v>50</v>
       </c>
@@ -3340,13 +3349,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3362,7 +3371,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="str">
         <f>B43</f>
@@ -3376,7 +3385,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="str">
         <f>B112</f>
@@ -3390,7 +3399,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="str">
         <f>B135</f>
@@ -3404,7 +3413,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12" t="str">
         <f>B158</f>
@@ -3418,7 +3427,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="8" t="str">
         <f>B193</f>
@@ -3432,7 +3441,7 @@
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="str">
         <f>B222</f>
@@ -3446,7 +3455,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="8" t="str">
         <f>B243</f>
@@ -3460,7 +3469,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="8" t="str">
         <f>B275</f>
@@ -3474,7 +3483,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="8" t="str">
         <f>B285</f>
@@ -3488,12 +3497,12 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3509,7 +3518,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>6</v>
       </c>
@@ -3524,7 +3533,7 @@
       </c>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="23" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
         <v>7</v>
       </c>
@@ -3540,7 +3549,7 @@
         <v>1.0416666666666685E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24" t="s">
         <v>8</v>
@@ -3558,7 +3567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A20" s="26">
         <v>1</v>
       </c>
@@ -3576,7 +3585,7 @@
       </c>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>295</v>
       </c>
@@ -3592,7 +3601,7 @@
       </c>
       <c r="F21" s="41"/>
     </row>
-    <row r="22" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>296</v>
       </c>
@@ -3606,7 +3615,7 @@
       </c>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>297</v>
       </c>
@@ -3620,7 +3629,7 @@
       </c>
       <c r="F23" s="30"/>
     </row>
-    <row r="24" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
         <v>298</v>
       </c>
@@ -3634,7 +3643,7 @@
       </c>
       <c r="F24" s="30"/>
     </row>
-    <row r="25" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A25" s="26">
         <v>3</v>
       </c>
@@ -3650,7 +3659,7 @@
       </c>
       <c r="F25" s="41"/>
     </row>
-    <row r="26" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A26" s="26">
         <v>4</v>
       </c>
@@ -3668,7 +3677,7 @@
       </c>
       <c r="F26" s="30"/>
     </row>
-    <row r="27" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A27" s="26">
         <v>5</v>
       </c>
@@ -3684,7 +3693,7 @@
       </c>
       <c r="F27" s="30"/>
     </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A28" s="26">
         <v>6</v>
       </c>
@@ -3700,7 +3709,7 @@
       </c>
       <c r="F28" s="30"/>
     </row>
-    <row r="29" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A29" s="26">
         <v>7</v>
       </c>
@@ -3716,7 +3725,7 @@
       </c>
       <c r="F29" s="41"/>
     </row>
-    <row r="30" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A30" s="26">
         <v>8</v>
       </c>
@@ -3732,7 +3741,7 @@
       </c>
       <c r="F30" s="30"/>
     </row>
-    <row r="31" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A31" s="26">
         <v>9</v>
       </c>
@@ -3748,7 +3757,7 @@
       </c>
       <c r="F31" s="30"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <v>10</v>
       </c>
@@ -3764,7 +3773,7 @@
       </c>
       <c r="F32" s="30"/>
     </row>
-    <row r="33" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <v>11</v>
       </c>
@@ -3782,7 +3791,7 @@
       </c>
       <c r="F33" s="41"/>
     </row>
-    <row r="34" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <v>12</v>
       </c>
@@ -3800,7 +3809,7 @@
       </c>
       <c r="F34" s="30"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>13</v>
       </c>
@@ -3816,7 +3825,7 @@
       </c>
       <c r="F35" s="30"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <v>14</v>
       </c>
@@ -3832,7 +3841,7 @@
       </c>
       <c r="F36" s="30"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>15</v>
       </c>
@@ -3848,7 +3857,7 @@
       </c>
       <c r="F37" s="30"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <v>16</v>
       </c>
@@ -3864,7 +3873,7 @@
       </c>
       <c r="F38" s="30"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
@@ -3872,7 +3881,7 @@
       <c r="E39" s="21"/>
       <c r="F39" s="44"/>
     </row>
-    <row r="40" spans="1:6" s="61" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="57"/>
       <c r="B40" s="57"/>
       <c r="C40" s="58"/>
@@ -3880,7 +3889,7 @@
       <c r="E40" s="60"/>
       <c r="F40" s="58"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="33"/>
       <c r="C41" s="21"/>
@@ -3888,7 +3897,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -3903,7 +3912,7 @@
       </c>
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>6</v>
       </c>
@@ -3919,7 +3928,7 @@
       </c>
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="1:6" s="23" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="23" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
         <v>7</v>
       </c>
@@ -3935,7 +3944,7 @@
         <v>9.7222222222221877E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="24" t="s">
         <v>8</v>
@@ -3953,7 +3962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A46" s="26">
         <v>1</v>
       </c>
@@ -3969,7 +3978,7 @@
       </c>
       <c r="F46" s="30"/>
     </row>
-    <row r="47" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
         <v>295</v>
       </c>
@@ -3985,7 +3994,7 @@
       </c>
       <c r="F47" s="30"/>
     </row>
-    <row r="48" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
         <v>296</v>
       </c>
@@ -3999,7 +4008,7 @@
       </c>
       <c r="F48" s="30"/>
     </row>
-    <row r="49" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A49" s="26" t="s">
         <v>297</v>
       </c>
@@ -4013,7 +4022,7 @@
       </c>
       <c r="F49" s="30"/>
     </row>
-    <row r="50" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A50" s="26" t="s">
         <v>298</v>
       </c>
@@ -4027,7 +4036,7 @@
       </c>
       <c r="F50" s="30"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="26" t="s">
         <v>299</v>
       </c>
@@ -4041,7 +4050,7 @@
       </c>
       <c r="F51" s="30"/>
     </row>
-    <row r="52" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A52" s="26" t="s">
         <v>300</v>
       </c>
@@ -4055,7 +4064,7 @@
       </c>
       <c r="F52" s="30"/>
     </row>
-    <row r="53" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A53" s="26" t="s">
         <v>301</v>
       </c>
@@ -4071,7 +4080,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A54" s="26">
         <v>4</v>
       </c>
@@ -4089,7 +4098,7 @@
       </c>
       <c r="F54" s="30"/>
     </row>
-    <row r="55" spans="1:6" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" s="5" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
       <c r="A55" s="26">
         <v>5</v>
       </c>
@@ -4107,7 +4116,7 @@
       </c>
       <c r="F55" s="30"/>
     </row>
-    <row r="56" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A56" s="26">
         <v>6</v>
       </c>
@@ -4123,7 +4132,7 @@
       </c>
       <c r="F56" s="30"/>
     </row>
-    <row r="57" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A57" s="26">
         <v>7</v>
       </c>
@@ -4138,10 +4147,10 @@
         <v>372</v>
       </c>
       <c r="F57" s="30" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A58" s="26">
         <v>8</v>
       </c>
@@ -4155,7 +4164,7 @@
       </c>
       <c r="F58" s="30"/>
     </row>
-    <row r="59" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A59" s="26">
         <v>9</v>
       </c>
@@ -4171,7 +4180,7 @@
       </c>
       <c r="F59" s="30"/>
     </row>
-    <row r="60" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A60" s="26">
         <v>10</v>
       </c>
@@ -4187,7 +4196,7 @@
       </c>
       <c r="F60" s="41"/>
     </row>
-    <row r="61" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A61" s="26">
         <v>11</v>
       </c>
@@ -4203,7 +4212,7 @@
       </c>
       <c r="F61" s="41"/>
     </row>
-    <row r="62" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A62" s="26" t="s">
         <v>302</v>
       </c>
@@ -4219,7 +4228,7 @@
       </c>
       <c r="F62" s="41"/>
     </row>
-    <row r="63" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A63" s="26" t="s">
         <v>303</v>
       </c>
@@ -4233,7 +4242,7 @@
       </c>
       <c r="F63" s="30"/>
     </row>
-    <row r="64" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A64" s="26" t="s">
         <v>304</v>
       </c>
@@ -4246,7 +4255,7 @@
       </c>
       <c r="F64" s="30"/>
     </row>
-    <row r="65" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A65" s="26" t="s">
         <v>305</v>
       </c>
@@ -4260,7 +4269,7 @@
       </c>
       <c r="F65" s="30"/>
     </row>
-    <row r="66" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A66" s="26">
         <v>13</v>
       </c>
@@ -4276,7 +4285,7 @@
       </c>
       <c r="F66" s="41"/>
     </row>
-    <row r="67" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A67" s="26">
         <v>14</v>
       </c>
@@ -4290,7 +4299,7 @@
       </c>
       <c r="F67" s="30"/>
     </row>
-    <row r="68" spans="1:6" s="5" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.2">
       <c r="A68" s="26">
         <v>15</v>
       </c>
@@ -4308,7 +4317,7 @@
       </c>
       <c r="F68" s="30"/>
     </row>
-    <row r="69" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A69" s="26">
         <v>16</v>
       </c>
@@ -4324,7 +4333,7 @@
       </c>
       <c r="F69" s="30"/>
     </row>
-    <row r="70" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A70" s="26">
         <v>17</v>
       </c>
@@ -4340,7 +4349,7 @@
       </c>
       <c r="F70" s="30"/>
     </row>
-    <row r="71" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A71" s="26">
         <v>18</v>
       </c>
@@ -4356,7 +4365,7 @@
       </c>
       <c r="F71" s="30"/>
     </row>
-    <row r="72" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A72" s="26">
         <v>19</v>
       </c>
@@ -4372,7 +4381,7 @@
       </c>
       <c r="F72" s="30"/>
     </row>
-    <row r="73" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A73" s="26">
         <v>20</v>
       </c>
@@ -4422,7 +4431,7 @@
       </c>
       <c r="F75" s="110"/>
     </row>
-    <row r="76" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" s="5" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.2">
       <c r="A76" s="26">
         <v>23</v>
       </c>
@@ -4440,7 +4449,7 @@
       </c>
       <c r="F76" s="110"/>
     </row>
-    <row r="77" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A77" s="26">
         <v>24</v>
       </c>
@@ -4456,7 +4465,7 @@
       </c>
       <c r="F77" s="30"/>
     </row>
-    <row r="78" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A78" s="26">
         <v>25</v>
       </c>
@@ -4472,7 +4481,7 @@
       </c>
       <c r="F78" s="30"/>
     </row>
-    <row r="79" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A79" s="26">
         <v>26</v>
       </c>
@@ -4488,7 +4497,7 @@
       </c>
       <c r="F79" s="30"/>
     </row>
-    <row r="80" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A80" s="26">
         <v>27</v>
       </c>
@@ -4504,7 +4513,7 @@
       </c>
       <c r="F80" s="30"/>
     </row>
-    <row r="81" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A81" s="26">
         <v>28</v>
       </c>
@@ -4520,7 +4529,7 @@
       </c>
       <c r="F81" s="30"/>
     </row>
-    <row r="82" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A82" s="26">
         <v>29</v>
       </c>
@@ -4536,7 +4545,7 @@
       </c>
       <c r="F82" s="30"/>
     </row>
-    <row r="83" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A83" s="26">
         <v>30</v>
       </c>
@@ -4552,7 +4561,7 @@
       </c>
       <c r="F83" s="30"/>
     </row>
-    <row r="84" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A84" s="26">
         <v>31</v>
       </c>
@@ -4564,11 +4573,13 @@
         <v>220</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84" s="30"/>
-    </row>
-    <row r="85" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A85" s="26">
         <v>32</v>
       </c>
@@ -4580,11 +4591,13 @@
         <v>221</v>
       </c>
       <c r="E85" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F85" s="30"/>
-    </row>
-    <row r="86" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A86" s="26">
         <v>33</v>
       </c>
@@ -4596,11 +4609,13 @@
         <v>222</v>
       </c>
       <c r="E86" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F86" s="30"/>
-    </row>
-    <row r="87" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A87" s="26">
         <v>34</v>
       </c>
@@ -4616,7 +4631,7 @@
       </c>
       <c r="F87" s="30"/>
     </row>
-    <row r="88" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A88" s="26">
         <v>35</v>
       </c>
@@ -4632,7 +4647,7 @@
       </c>
       <c r="F88" s="30"/>
     </row>
-    <row r="89" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A89" s="26">
         <v>36</v>
       </c>
@@ -4648,7 +4663,7 @@
       </c>
       <c r="F89" s="41"/>
     </row>
-    <row r="90" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A90" s="26">
         <v>37</v>
       </c>
@@ -4664,7 +4679,7 @@
       </c>
       <c r="F90" s="30"/>
     </row>
-    <row r="91" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A91" s="26">
         <v>38</v>
       </c>
@@ -4680,7 +4695,7 @@
       </c>
       <c r="F91" s="30"/>
     </row>
-    <row r="92" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A92" s="26">
         <v>39</v>
       </c>
@@ -4696,7 +4711,7 @@
       </c>
       <c r="F92" s="30"/>
     </row>
-    <row r="93" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A93" s="26">
         <v>40</v>
       </c>
@@ -4712,7 +4727,7 @@
       </c>
       <c r="F93" s="41"/>
     </row>
-    <row r="94" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A94" s="26">
         <v>41</v>
       </c>
@@ -4728,7 +4743,7 @@
       </c>
       <c r="F94" s="30"/>
     </row>
-    <row r="95" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A95" s="26">
         <v>42</v>
       </c>
@@ -4744,7 +4759,7 @@
       </c>
       <c r="F95" s="41"/>
     </row>
-    <row r="96" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A96" s="26">
         <v>43</v>
       </c>
@@ -4760,7 +4775,7 @@
       </c>
       <c r="F96" s="30"/>
     </row>
-    <row r="97" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A97" s="26">
         <v>44</v>
       </c>
@@ -4776,7 +4791,7 @@
       </c>
       <c r="F97" s="30"/>
     </row>
-    <row r="98" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A98" s="26">
         <v>45</v>
       </c>
@@ -4792,7 +4807,7 @@
       </c>
       <c r="F98" s="30"/>
     </row>
-    <row r="99" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A99" s="26">
         <v>46</v>
       </c>
@@ -4808,7 +4823,7 @@
       </c>
       <c r="F99" s="30"/>
     </row>
-    <row r="100" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A100" s="26">
         <v>47</v>
       </c>
@@ -4824,7 +4839,7 @@
       </c>
       <c r="F100" s="30"/>
     </row>
-    <row r="101" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A101" s="26">
         <v>48</v>
       </c>
@@ -4840,7 +4855,7 @@
       </c>
       <c r="F101" s="30"/>
     </row>
-    <row r="102" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A102" s="26">
         <v>49</v>
       </c>
@@ -4856,7 +4871,7 @@
       </c>
       <c r="F102" s="30"/>
     </row>
-    <row r="103" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A103" s="26">
         <v>50</v>
       </c>
@@ -4874,7 +4889,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A104" s="26">
         <v>51</v>
       </c>
@@ -4890,7 +4905,7 @@
       </c>
       <c r="F104" s="30"/>
     </row>
-    <row r="105" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A105" s="26">
         <v>52</v>
       </c>
@@ -4906,7 +4921,7 @@
       </c>
       <c r="F105" s="41"/>
     </row>
-    <row r="106" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A106" s="26">
         <v>53</v>
       </c>
@@ -4922,7 +4937,7 @@
       </c>
       <c r="F106" s="30"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A107" s="26">
         <v>54</v>
       </c>
@@ -4934,11 +4949,13 @@
         <v>293</v>
       </c>
       <c r="E107" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F107" s="41"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="F107" s="41" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="32"/>
       <c r="B108" s="33"/>
       <c r="C108" s="33"/>
@@ -4946,13 +4963,13 @@
       <c r="E108" s="37"/>
       <c r="F108" s="21"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="32"/>
       <c r="B109" s="88"/>
       <c r="E109" s="37"/>
       <c r="F109" s="21"/>
     </row>
-    <row r="110" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4960,7 +4977,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>5</v>
       </c>
@@ -4975,7 +4992,7 @@
       </c>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>6</v>
       </c>
@@ -4990,7 +5007,7 @@
       </c>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A113" s="16" t="s">
         <v>7</v>
       </c>
@@ -5007,7 +5024,7 @@
       </c>
       <c r="F113" s="23"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="24"/>
       <c r="B114" s="24" t="s">
         <v>8</v>
@@ -5025,7 +5042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="26">
         <v>1</v>
       </c>
@@ -5041,7 +5058,7 @@
       </c>
       <c r="F115" s="30"/>
     </row>
-    <row r="116" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A116" s="26">
         <v>2</v>
       </c>
@@ -5057,7 +5074,7 @@
       </c>
       <c r="F116" s="30"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="26">
         <v>3</v>
       </c>
@@ -5073,7 +5090,7 @@
       </c>
       <c r="F117" s="30"/>
     </row>
-    <row r="118" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A118" s="26">
         <v>4</v>
       </c>
@@ -5089,7 +5106,7 @@
       </c>
       <c r="F118" s="30"/>
     </row>
-    <row r="119" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A119" s="26">
         <v>5</v>
       </c>
@@ -5105,7 +5122,7 @@
       </c>
       <c r="F119" s="30"/>
     </row>
-    <row r="120" spans="1:6" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" s="5" customFormat="1" ht="40.799999999999997" x14ac:dyDescent="0.2">
       <c r="A120" s="26">
         <v>6</v>
       </c>
@@ -5123,7 +5140,7 @@
       </c>
       <c r="F120" s="30"/>
     </row>
-    <row r="121" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A121" s="26">
         <v>7</v>
       </c>
@@ -5139,7 +5156,7 @@
       </c>
       <c r="F121" s="30"/>
     </row>
-    <row r="122" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A122" s="26">
         <v>8</v>
       </c>
@@ -5155,7 +5172,7 @@
       </c>
       <c r="F122" s="41"/>
     </row>
-    <row r="123" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A123" s="26">
         <v>9</v>
       </c>
@@ -5171,7 +5188,7 @@
       </c>
       <c r="F123" s="41"/>
     </row>
-    <row r="124" spans="1:6" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A124" s="26">
         <v>10</v>
       </c>
@@ -5189,7 +5206,7 @@
       </c>
       <c r="F124" s="41"/>
     </row>
-    <row r="125" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A125" s="26">
         <v>11</v>
       </c>
@@ -5205,7 +5222,7 @@
       </c>
       <c r="F125" s="41"/>
     </row>
-    <row r="126" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A126" s="26">
         <v>12</v>
       </c>
@@ -5221,7 +5238,7 @@
       </c>
       <c r="F126" s="41"/>
     </row>
-    <row r="127" spans="1:6" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A127" s="26">
         <v>13</v>
       </c>
@@ -5239,7 +5256,7 @@
       </c>
       <c r="F127" s="41"/>
     </row>
-    <row r="128" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A128" s="26">
         <v>14</v>
       </c>
@@ -5255,7 +5272,7 @@
       </c>
       <c r="F128" s="41"/>
     </row>
-    <row r="129" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A129" s="26">
         <v>15</v>
       </c>
@@ -5271,7 +5288,7 @@
       </c>
       <c r="F129" s="30"/>
     </row>
-    <row r="130" spans="1:6" s="5" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A130" s="26">
         <v>16</v>
       </c>
@@ -5289,7 +5306,7 @@
       </c>
       <c r="F130" s="30"/>
     </row>
-    <row r="131" spans="1:6" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" s="5" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="A131" s="26">
         <v>17</v>
       </c>
@@ -5305,7 +5322,7 @@
       </c>
       <c r="F131" s="30"/>
     </row>
-    <row r="132" spans="1:6" s="5" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" s="5" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.2">
       <c r="A132" s="32"/>
       <c r="B132" s="34"/>
       <c r="C132" s="20"/>
@@ -5313,7 +5330,7 @@
       <c r="E132" s="19"/>
       <c r="F132" s="21"/>
     </row>
-    <row r="133" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="32"/>
       <c r="B133" s="34"/>
       <c r="C133" s="20"/>
@@ -5321,7 +5338,7 @@
       <c r="E133" s="19"/>
       <c r="F133" s="42"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
@@ -5336,7 +5353,7 @@
         <v>0.39999999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
         <v>6</v>
       </c>
@@ -5351,7 +5368,7 @@
         <v>0.40347222222222223</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A136" s="16" t="s">
         <v>7</v>
       </c>
@@ -5368,7 +5385,7 @@
       </c>
       <c r="F136" s="23"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="24"/>
       <c r="B137" s="24" t="s">
         <v>8</v>
@@ -5386,7 +5403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A138" s="26">
         <v>1</v>
       </c>
@@ -5402,7 +5419,7 @@
       </c>
       <c r="F138" s="41"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
         <v>295</v>
       </c>
@@ -5418,7 +5435,7 @@
       </c>
       <c r="F139" s="30"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
         <v>296</v>
       </c>
@@ -5432,7 +5449,7 @@
       </c>
       <c r="F140" s="41"/>
     </row>
-    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>3</v>
       </c>
@@ -5448,7 +5465,7 @@
       </c>
       <c r="F141"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="26">
         <v>4</v>
       </c>
@@ -5464,7 +5481,7 @@
       </c>
       <c r="F142" s="30"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="26">
         <v>5</v>
       </c>
@@ -5480,7 +5497,7 @@
       </c>
       <c r="F143" s="30"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="26">
         <v>6</v>
       </c>
@@ -5496,7 +5513,7 @@
       </c>
       <c r="F144" s="30"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="26">
         <v>7</v>
       </c>
@@ -5512,7 +5529,7 @@
       </c>
       <c r="F145" s="30"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="26">
         <v>8</v>
       </c>
@@ -5528,7 +5545,7 @@
       </c>
       <c r="F146" s="30"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="26">
         <v>9</v>
       </c>
@@ -5544,7 +5561,7 @@
       </c>
       <c r="F147" s="30"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="26">
         <v>10</v>
       </c>
@@ -5560,7 +5577,7 @@
       </c>
       <c r="F148" s="41"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="26">
         <v>11</v>
       </c>
@@ -5576,7 +5593,7 @@
       </c>
       <c r="F149" s="30"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="26">
         <v>12</v>
       </c>
@@ -5592,7 +5609,7 @@
       </c>
       <c r="F150" s="30"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="26">
         <v>13</v>
       </c>
@@ -5608,7 +5625,7 @@
       </c>
       <c r="F151" s="41"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
         <v>308</v>
       </c>
@@ -5624,7 +5641,7 @@
       </c>
       <c r="F152" s="30"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
         <v>309</v>
       </c>
@@ -5638,7 +5655,7 @@
       </c>
       <c r="F153" s="99"/>
     </row>
-    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A154" s="26">
         <v>15</v>
       </c>
@@ -5654,10 +5671,10 @@
       </c>
       <c r="F154" s="100"/>
     </row>
-    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="F155"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>5</v>
       </c>
@@ -5672,7 +5689,7 @@
         <v>0.40416666666666662</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
         <v>6</v>
       </c>
@@ -5687,7 +5704,7 @@
         <v>0.40972222222222227</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A159" s="16" t="s">
         <v>7</v>
       </c>
@@ -5704,7 +5721,7 @@
       </c>
       <c r="F159" s="23"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="24"/>
       <c r="B160" s="24" t="s">
         <v>8</v>
@@ -5722,7 +5739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="26">
         <v>1</v>
       </c>
@@ -5738,7 +5755,7 @@
       </c>
       <c r="F161" s="30"/>
     </row>
-    <row r="162" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A162" s="26" t="s">
         <v>295</v>
       </c>
@@ -5754,7 +5771,7 @@
       </c>
       <c r="F162" s="41"/>
     </row>
-    <row r="163" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A163" s="26" t="s">
         <v>296</v>
       </c>
@@ -5768,7 +5785,7 @@
       </c>
       <c r="F163" s="30"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="26">
         <v>3</v>
       </c>
@@ -5786,7 +5803,7 @@
       </c>
       <c r="F164" s="30"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="26">
         <v>4</v>
       </c>
@@ -5804,7 +5821,7 @@
       </c>
       <c r="F165" s="41"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="26" t="s">
         <v>310</v>
       </c>
@@ -5818,7 +5835,7 @@
       </c>
       <c r="F166" s="30"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="26" t="s">
         <v>311</v>
       </c>
@@ -5834,7 +5851,7 @@
       </c>
       <c r="F167" s="30"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="26" t="s">
         <v>312</v>
       </c>
@@ -5850,7 +5867,7 @@
       </c>
       <c r="F168" s="30"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="26" t="s">
         <v>313</v>
       </c>
@@ -5866,7 +5883,7 @@
       </c>
       <c r="F169" s="30"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="26" t="s">
         <v>314</v>
       </c>
@@ -5882,7 +5899,7 @@
       </c>
       <c r="F170" s="30"/>
     </row>
-    <row r="171" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A171" s="26" t="s">
         <v>343</v>
       </c>
@@ -5900,7 +5917,7 @@
       </c>
       <c r="F171" s="30"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="26" t="s">
         <v>344</v>
       </c>
@@ -5916,7 +5933,7 @@
       </c>
       <c r="F172" s="30"/>
     </row>
-    <row r="173" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A173" s="26" t="s">
         <v>306</v>
       </c>
@@ -5934,7 +5951,7 @@
       </c>
       <c r="F173" s="30"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="26" t="s">
         <v>307</v>
       </c>
@@ -5950,7 +5967,7 @@
       </c>
       <c r="F174" s="30"/>
     </row>
-    <row r="175" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A175" s="26">
         <v>9</v>
       </c>
@@ -5966,7 +5983,7 @@
       </c>
       <c r="F175" s="30"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="26">
         <v>10</v>
       </c>
@@ -5982,7 +5999,7 @@
       </c>
       <c r="F176" s="30"/>
     </row>
-    <row r="177" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A177" s="26">
         <v>11</v>
       </c>
@@ -5998,7 +6015,7 @@
       </c>
       <c r="F177" s="30"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="26">
         <v>12</v>
       </c>
@@ -6014,7 +6031,7 @@
       </c>
       <c r="F178" s="30"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="26">
         <v>13</v>
       </c>
@@ -6030,7 +6047,7 @@
       </c>
       <c r="F179" s="30"/>
     </row>
-    <row r="180" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A180" s="26">
         <v>14</v>
       </c>
@@ -6046,7 +6063,7 @@
       </c>
       <c r="F180" s="30"/>
     </row>
-    <row r="181" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A181" s="26">
         <v>15</v>
       </c>
@@ -6062,7 +6079,7 @@
       </c>
       <c r="F181" s="30"/>
     </row>
-    <row r="182" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A182" s="26">
         <v>16</v>
       </c>
@@ -6078,7 +6095,7 @@
       </c>
       <c r="F182" s="30"/>
     </row>
-    <row r="183" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A183" s="26">
         <v>17</v>
       </c>
@@ -6094,7 +6111,7 @@
       </c>
       <c r="F183" s="98"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="26">
         <v>18</v>
       </c>
@@ -6110,7 +6127,7 @@
       </c>
       <c r="F184" s="41"/>
     </row>
-    <row r="185" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A185" s="26">
         <v>19</v>
       </c>
@@ -6126,7 +6143,7 @@
       </c>
       <c r="F185" s="41"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="26">
         <v>20</v>
       </c>
@@ -6142,7 +6159,7 @@
       </c>
       <c r="F186" s="41"/>
     </row>
-    <row r="187" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A187" s="26">
         <v>21</v>
       </c>
@@ -6160,7 +6177,7 @@
       </c>
       <c r="F187" s="41"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="26">
         <v>22</v>
       </c>
@@ -6176,7 +6193,7 @@
       </c>
       <c r="F188" s="41"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="26">
         <v>23</v>
       </c>
@@ -6192,7 +6209,7 @@
       </c>
       <c r="F189" s="41"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>5</v>
       </c>
@@ -6207,7 +6224,7 @@
         <v>0.41041666666666665</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>6</v>
       </c>
@@ -6222,7 +6239,7 @@
         <v>0.4152777777777778</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A194" s="16" t="s">
         <v>7</v>
       </c>
@@ -6239,7 +6256,7 @@
       </c>
       <c r="F194" s="23"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="24"/>
       <c r="B195" s="24" t="s">
         <v>8</v>
@@ -6257,7 +6274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="26">
         <v>1</v>
       </c>
@@ -6273,7 +6290,7 @@
       </c>
       <c r="F196" s="30"/>
     </row>
-    <row r="197" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A197" s="26">
         <v>2</v>
       </c>
@@ -6289,7 +6306,7 @@
       </c>
       <c r="F197" s="30"/>
     </row>
-    <row r="198" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A198" s="26">
         <v>3</v>
       </c>
@@ -6307,7 +6324,7 @@
       </c>
       <c r="F198" s="30"/>
     </row>
-    <row r="199" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A199" s="26">
         <v>4</v>
       </c>
@@ -6325,7 +6342,7 @@
       </c>
       <c r="F199" s="41"/>
     </row>
-    <row r="200" spans="1:6" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="61.2" x14ac:dyDescent="0.25">
       <c r="A200" s="26">
         <v>5</v>
       </c>
@@ -6343,7 +6360,7 @@
       </c>
       <c r="F200" s="41"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="26">
         <v>6</v>
       </c>
@@ -6357,7 +6374,7 @@
       </c>
       <c r="F201" s="30"/>
     </row>
-    <row r="202" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A202" s="26">
         <v>7</v>
       </c>
@@ -6375,7 +6392,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="26">
         <v>8</v>
       </c>
@@ -6395,7 +6412,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A204" s="26">
         <v>9</v>
       </c>
@@ -6413,7 +6430,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="26">
         <v>10</v>
       </c>
@@ -6433,7 +6450,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A206" s="26">
         <v>11</v>
       </c>
@@ -6449,7 +6466,7 @@
       </c>
       <c r="F206" s="30"/>
     </row>
-    <row r="207" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A207" s="102">
         <v>12</v>
       </c>
@@ -6467,7 +6484,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="102">
         <v>13</v>
       </c>
@@ -6483,7 +6500,7 @@
       </c>
       <c r="F208" s="30"/>
     </row>
-    <row r="209" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A209" s="26">
         <v>14</v>
       </c>
@@ -6501,7 +6518,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="26">
         <v>15</v>
       </c>
@@ -6517,7 +6534,7 @@
       </c>
       <c r="F210" s="41"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="26">
         <v>16</v>
       </c>
@@ -6533,7 +6550,7 @@
       </c>
       <c r="F211" s="30"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="26">
         <v>17</v>
       </c>
@@ -6551,7 +6568,7 @@
       </c>
       <c r="F212" s="30"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="26">
         <v>18</v>
       </c>
@@ -6567,7 +6584,7 @@
       </c>
       <c r="F213" s="30"/>
     </row>
-    <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A214" s="26">
         <v>19</v>
       </c>
@@ -6585,7 +6602,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="26">
         <v>20</v>
       </c>
@@ -6601,7 +6618,7 @@
       </c>
       <c r="F215" s="30"/>
     </row>
-    <row r="216" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A216" s="26">
         <v>21</v>
       </c>
@@ -6619,7 +6636,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A217" s="26">
         <v>22</v>
       </c>
@@ -6635,7 +6652,7 @@
       </c>
       <c r="F217" s="41"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="26">
         <v>23</v>
       </c>
@@ -6651,7 +6668,7 @@
       </c>
       <c r="F218" s="30"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>5</v>
       </c>
@@ -6666,7 +6683,7 @@
         <v>0.41597222222222219</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="16" t="s">
         <v>6</v>
       </c>
@@ -6681,7 +6698,7 @@
         <v>0.42152777777777778</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A223" s="16" t="s">
         <v>7</v>
       </c>
@@ -6698,7 +6715,7 @@
       </c>
       <c r="F223" s="23"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="24"/>
       <c r="B224" s="24" t="s">
         <v>8</v>
@@ -6716,7 +6733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="26">
         <v>1</v>
       </c>
@@ -6732,7 +6749,7 @@
       </c>
       <c r="F225" s="30"/>
     </row>
-    <row r="226" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A226" s="26">
         <v>2</v>
       </c>
@@ -6750,7 +6767,7 @@
       </c>
       <c r="F226" s="30"/>
     </row>
-    <row r="227" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A227" s="26">
         <v>3</v>
       </c>
@@ -6768,7 +6785,7 @@
       </c>
       <c r="F227" s="30"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="26">
         <v>4</v>
       </c>
@@ -6784,7 +6801,7 @@
       </c>
       <c r="F228" s="30"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="26">
         <v>5</v>
       </c>
@@ -6800,7 +6817,7 @@
       </c>
       <c r="F229" s="30"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="26">
         <v>6</v>
       </c>
@@ -6816,7 +6833,7 @@
       </c>
       <c r="F230" s="41"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="26">
         <v>7</v>
       </c>
@@ -6832,7 +6849,7 @@
       </c>
       <c r="F231" s="30"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="26">
         <v>8</v>
       </c>
@@ -6848,7 +6865,7 @@
       </c>
       <c r="F232" s="30"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="26">
         <v>9</v>
       </c>
@@ -6864,7 +6881,7 @@
       </c>
       <c r="F233" s="30"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="26">
         <v>10</v>
       </c>
@@ -6880,7 +6897,7 @@
       </c>
       <c r="F234" s="30"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="26">
         <v>11</v>
       </c>
@@ -6896,7 +6913,7 @@
       </c>
       <c r="F235" s="30"/>
     </row>
-    <row r="236" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A236" s="26">
         <v>12</v>
       </c>
@@ -6912,7 +6929,7 @@
       </c>
       <c r="F236" s="30"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="26">
         <v>13</v>
       </c>
@@ -6928,7 +6945,7 @@
       </c>
       <c r="F237" s="30"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="26">
         <v>14</v>
       </c>
@@ -6944,7 +6961,7 @@
       </c>
       <c r="F238" s="41"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="26">
         <v>15</v>
       </c>
@@ -6960,7 +6977,7 @@
       </c>
       <c r="F239" s="41"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="32"/>
       <c r="B240" s="34"/>
       <c r="C240" s="81"/>
@@ -6968,7 +6985,7 @@
       <c r="E240" s="21"/>
       <c r="F240" s="44"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="32"/>
       <c r="B241" s="34"/>
       <c r="C241" s="81"/>
@@ -6976,7 +6993,7 @@
       <c r="E241" s="21"/>
       <c r="F241" s="44"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>5</v>
       </c>
@@ -6992,7 +7009,7 @@
       </c>
       <c r="F242" s="44"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
         <v>6</v>
       </c>
@@ -7008,7 +7025,7 @@
       </c>
       <c r="F243" s="44"/>
     </row>
-    <row r="244" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A244" s="16" t="s">
         <v>7</v>
       </c>
@@ -7025,7 +7042,7 @@
       </c>
       <c r="F244" s="44"/>
     </row>
-    <row r="245" spans="1:6" ht="12.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="24"/>
       <c r="B245" s="24" t="s">
         <v>8</v>
@@ -7043,7 +7060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="12.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="12.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="26">
         <v>1</v>
       </c>
@@ -7061,7 +7078,7 @@
       </c>
       <c r="F246" s="30"/>
     </row>
-    <row r="247" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A247" s="26">
         <v>2</v>
       </c>
@@ -7075,9 +7092,11 @@
       <c r="E247" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F247" s="30"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F247" s="30" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="26" t="s">
         <v>254</v>
       </c>
@@ -7093,7 +7112,7 @@
       </c>
       <c r="F248" s="30"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="26"/>
       <c r="B249" s="27"/>
       <c r="C249" s="83"/>
@@ -7105,7 +7124,7 @@
       </c>
       <c r="F249" s="30"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="26"/>
       <c r="B250" s="27"/>
       <c r="C250" s="85"/>
@@ -7117,7 +7136,7 @@
       </c>
       <c r="F250" s="30"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="26"/>
       <c r="B251" s="27"/>
       <c r="C251" s="85"/>
@@ -7129,7 +7148,7 @@
       </c>
       <c r="F251" s="30"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="26"/>
       <c r="B252" s="27"/>
       <c r="C252" s="85"/>
@@ -7141,7 +7160,7 @@
       </c>
       <c r="F252" s="30"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="26"/>
       <c r="B253" s="27"/>
       <c r="C253" s="85"/>
@@ -7153,7 +7172,7 @@
       </c>
       <c r="F253" s="30"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="26"/>
       <c r="B254" s="27"/>
       <c r="C254" s="85"/>
@@ -7165,7 +7184,7 @@
       </c>
       <c r="F254" s="30"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="26"/>
       <c r="B255" s="27"/>
       <c r="C255" s="85"/>
@@ -7177,7 +7196,7 @@
       </c>
       <c r="F255" s="30"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="26"/>
       <c r="B256" s="27"/>
       <c r="C256" s="85"/>
@@ -7189,7 +7208,7 @@
       </c>
       <c r="F256" s="30"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="26" t="s">
         <v>255</v>
       </c>
@@ -7203,7 +7222,7 @@
       </c>
       <c r="F257" s="30"/>
     </row>
-    <row r="258" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="26" t="s">
         <v>256</v>
       </c>
@@ -7213,13 +7232,11 @@
         <v>194</v>
       </c>
       <c r="E258" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F258" s="41" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F258" s="41"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="26" t="s">
         <v>423</v>
       </c>
@@ -7233,7 +7250,7 @@
       </c>
       <c r="F259" s="30"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="26">
         <v>4</v>
       </c>
@@ -7249,7 +7266,7 @@
       </c>
       <c r="F260" s="30"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="26" t="s">
         <v>257</v>
       </c>
@@ -7265,7 +7282,7 @@
       </c>
       <c r="F261" s="30"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="26" t="s">
         <v>258</v>
       </c>
@@ -7279,7 +7296,7 @@
       </c>
       <c r="F262" s="30"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="26" t="s">
         <v>259</v>
       </c>
@@ -7293,7 +7310,7 @@
       </c>
       <c r="F263" s="30"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="26">
         <v>6</v>
       </c>
@@ -7309,7 +7326,7 @@
       </c>
       <c r="F264" s="30"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="26">
         <v>7</v>
       </c>
@@ -7325,7 +7342,7 @@
       </c>
       <c r="F265" s="41"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="26">
         <v>8</v>
       </c>
@@ -7341,7 +7358,7 @@
       </c>
       <c r="F266" s="41"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="26">
         <v>9</v>
       </c>
@@ -7357,7 +7374,7 @@
       </c>
       <c r="F267" s="41"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="26">
         <v>10</v>
       </c>
@@ -7373,7 +7390,7 @@
       </c>
       <c r="F268" s="41"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="26">
         <v>11</v>
       </c>
@@ -7389,7 +7406,7 @@
       </c>
       <c r="F269" s="41"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="26">
         <v>12</v>
       </c>
@@ -7405,7 +7422,7 @@
       </c>
       <c r="F270" s="41"/>
     </row>
-    <row r="271" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A271" s="26">
         <v>13</v>
       </c>
@@ -7420,10 +7437,10 @@
         <v>3</v>
       </c>
       <c r="F271" s="30" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="32"/>
       <c r="B272" s="34"/>
       <c r="C272" s="34"/>
@@ -7431,7 +7448,7 @@
       <c r="E272" s="21"/>
       <c r="F272" s="101"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="32"/>
       <c r="B273" s="34"/>
       <c r="C273" s="81"/>
@@ -7439,7 +7456,7 @@
       <c r="E273" s="21"/>
       <c r="F273" s="44"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>5</v>
       </c>
@@ -7455,7 +7472,7 @@
       </c>
       <c r="F274" s="44"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="16" t="s">
         <v>6</v>
       </c>
@@ -7471,7 +7488,7 @@
       </c>
       <c r="F275" s="44"/>
     </row>
-    <row r="276" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A276" s="16" t="s">
         <v>7</v>
       </c>
@@ -7488,7 +7505,7 @@
       </c>
       <c r="F276" s="44"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="24"/>
       <c r="B277" s="24" t="s">
         <v>8</v>
@@ -7506,7 +7523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A278" s="26">
         <v>1</v>
       </c>
@@ -7522,12 +7539,12 @@
       </c>
       <c r="F278" s="41"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="26">
         <v>2</v>
       </c>
       <c r="B279" s="89" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C279" s="83"/>
       <c r="D279" s="28" t="s">
@@ -7538,12 +7555,12 @@
       </c>
       <c r="F279" s="41"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="26">
         <v>3</v>
       </c>
       <c r="B280" s="89" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C280" s="83"/>
       <c r="D280" s="28" t="s">
@@ -7554,25 +7571,23 @@
       </c>
       <c r="F280" s="41"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="26">
         <v>4</v>
       </c>
       <c r="B281" s="89" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C281" s="85"/>
       <c r="D281" s="28" t="s">
         <v>264</v>
       </c>
       <c r="E281" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F281" s="41" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F281" s="41"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="32"/>
       <c r="B282" s="34"/>
       <c r="C282" s="34"/>
@@ -7580,7 +7595,7 @@
       <c r="E282" s="21"/>
       <c r="F282" s="44"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="32"/>
       <c r="B283" s="34"/>
       <c r="C283" s="81"/>
@@ -7588,7 +7603,7 @@
       <c r="E283" s="21"/>
       <c r="F283" s="44"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>5</v>
       </c>
@@ -7603,7 +7618,7 @@
         <v>0.43124999999999997</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="16" t="s">
         <v>6</v>
       </c>
@@ -7618,7 +7633,7 @@
         <v>0.43194444444444446</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="14.25" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A286" s="16" t="s">
         <v>7</v>
       </c>
@@ -7635,7 +7650,7 @@
       </c>
       <c r="F286" s="23"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="24"/>
       <c r="B287" s="24" t="s">
         <v>8</v>
@@ -7653,7 +7668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="26">
         <v>1</v>
       </c>
@@ -7669,7 +7684,7 @@
       </c>
       <c r="F288" s="30"/>
     </row>
-    <row r="289" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A289" s="26">
         <v>2</v>
       </c>
@@ -7685,7 +7700,7 @@
       </c>
       <c r="F289" s="30"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="26">
         <v>3</v>
       </c>
@@ -7923,14 +7938,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="109" t="s">
         <v>429</v>
       </c>
@@ -7938,7 +7953,7 @@
       <c r="E3" s="104"/>
       <c r="F3" s="104"/>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="105" t="s">
         <v>430</v>
       </c>
@@ -7953,7 +7968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="106" t="s">
         <v>431</v>
       </c>
@@ -7968,7 +7983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C6" s="107" t="s">
         <v>432</v>
       </c>
@@ -7983,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C7" s="106" t="s">
         <v>433</v>
       </c>
@@ -7997,7 +8012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C8" s="107" t="s">
         <v>440</v>
       </c>
@@ -8012,7 +8027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="3:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C9" s="108" t="s">
         <v>441</v>
       </c>
